--- a/previews/PR27/examples/results/output_file_ANC.xlsx
+++ b/previews/PR27/examples/results/output_file_ANC.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.3168489933013916</v>
+        <v>1.4516913890838623</v>
       </c>
       <c r="B2">
         <v>1</v>
